--- a/unified_analysis.xlsx
+++ b/unified_analysis.xlsx
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>3.000209732899393</v>
+        <v>3.000209732899417</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>

--- a/unified_analysis.xlsx
+++ b/unified_analysis.xlsx
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>3.000209732899417</v>
+        <v>3.000209732899393</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
